--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="flashcards" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,41 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gestão da Qualidade</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>processos universais da Trilogia de Juran</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+&lt;li&gt;Planejamento da Qualidade&lt;/li&gt;
+&lt;li&gt;Controle da Qualidade&lt;/li&gt;
+&lt;li&gt;Melhoria da Qualidade&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gestão da Qualidade</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Trilogia Juran&lt;/b&gt;
+Planejamento da qualidade</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Planejamento da qualidade&lt;/li&gt;
+&lt;/ul&gt;
+&lt;b&gt;são estabelecidos:&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;objetivos&lt;/li&gt;
+	&lt;li&gt;planos de ação&lt;/li&gt;
+	&lt;li&gt;bem como metas de qualidade&lt;/li&gt;
+	&lt;li&gt;os produtos e processos necessários à realização dessas metas&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Gestão da Qualidade</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Trilogia Juran&lt;/b&gt;&lt;br&gt;
+Controle da Qualidade</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;inspeções contínuas para garantir que os processos estejam sob controle&lt;/li&gt;
+	&lt;li&gt;fazer um comparativo entre o desempenho real e o desempenho planejado&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gestão da Qualidade</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Trilogia Juran&lt;/b&gt;&lt;br&gt;
+Melhoria da qualidade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;refinamento proativo dos processos para melhorá-los&lt;/li&gt;
+	&lt;li&gt;aprimorar o desempenho rumo a um nível superior de qualidade&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -494,8 +494,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -515,16 +517,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;ul&gt;
-	&lt;li&gt;Planejamento da qualidade&lt;/li&gt;
-&lt;/ul&gt;
-&lt;b&gt;são estabelecidos:&lt;/b&gt;
+          <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;A etapa de desing&lt;/li&gt;
+&lt;li&gt;são estabelecidos:
 &lt;ul&gt;
 	&lt;li&gt;objetivos&lt;/li&gt;
 	&lt;li&gt;planos de ação&lt;/li&gt;
 	&lt;li&gt;bem como metas de qualidade&lt;/li&gt;
 	&lt;li&gt;os produtos e processos necessários à realização dessas metas&lt;/li&gt;
-&lt;/ul&gt;</t>
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Matemática Básica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tabuada de multiplicação de 6 a 8</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;6 x 7 = 42&lt;/li&gt;
+	&lt;li&gt;6 x 8 = 48&lt;/li&gt;
+	&lt;li&gt;7 x 8 = 56&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,33 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Estatística</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Distribuições Conjuntas e Momentos de Variáveis Aleatórias</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Estudar coeficiente de correlação</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,33 +643,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Estatística</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Distribuições Conjuntas e Momentos de Variáveis Aleatórias</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Estudar coeficiente de correlação</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,79 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Gestão da Produção e Operações</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;b&gt;ASPECTOS HISTÓRICOS E EVOLUTIVOS&lt;/b&gt;
+do:
+&lt;ul&gt;
+	&lt;li&gt;&lt;b&gt;MRP I&lt;/b&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;MRP II&lt;/b&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;ERP I&lt;/b&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;ERP II&lt;/b&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;ERPs baseados em nuvem (SaaS)&lt;/b&gt;&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;&lt;b&gt;MRP I:&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;Foco no planejamento de materiais necessários para a produção;&lt;/li&gt;
+	&lt;li&gt;Estrutura baseada em listas de materiais (BOM – Bill of Materials), programação de ordens de&lt;/li&gt;
+	&lt;li&gt;compra e produção;&lt;/li&gt;
+	&lt;li&gt;Objetivo central: minimizar estoques e garantir disponibilidade de insumos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;MRP II&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;Expansão do MRP para incluir capacidade produtiva, finanças e simulações;&lt;/li&gt;
+	&lt;li&gt;Incorporação de planejamento financeiro integrado com o plano mestre de produção;&lt;/li&gt;
+	&lt;li&gt;Primeiro movimento em direção à integração interfuncional.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;ERP I&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;Integração total de todos os departamentos e funções empresariais;&lt;/li&gt;
+	&lt;li&gt;Inclusão de módulos de vendas, distribuição, contabilidade, RH, manutenção e outros;&lt;/li&gt;
+	&lt;li&gt;Capacidade de operar em ambientes multiempresa e multinacionais.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;ERP II&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;com integração entre empresas via internet e cadeia de suprimentos (SCM).&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;ERPs baseados em nuvem (SaaS)&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;que ampliam escalabilidade e flexibilidade.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -644,8 +644,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -676,34 +678,41 @@
           <t>&lt;ul&gt;
 	&lt;li&gt;&lt;b&gt;MRP I:&lt;/b&gt;
 &lt;ul&gt;
-	&lt;li&gt;Foco no planejamento de materiais necessários para a produção;&lt;/li&gt;
-	&lt;li&gt;Estrutura baseada em listas de materiais (BOM – Bill of Materials), programação de ordens de&lt;/li&gt;
-	&lt;li&gt;compra e produção;&lt;/li&gt;
-	&lt;li&gt;Objetivo central: minimizar estoques e garantir disponibilidade de insumos.&lt;/li&gt;
+&lt;li&gt;décadas de 1960–1970&lt;/li&gt;
+	&lt;li&gt;Planejamento de materiais;&lt;/li&gt;
+	&lt;li&gt;BOM – Bill of Materials, programação de ordens;&lt;/li&gt;
+	&lt;li&gt;Objetivo central:
+&lt;ul&gt;
+	&lt;li&gt;minimizar estoques&lt;/li&gt;
+	&lt;li&gt;garantir disponibilidade de insumos.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/li&gt;
 	&lt;li&gt;&lt;b&gt;MRP II&lt;/b&gt;
 &lt;ul&gt;
-	&lt;li&gt;Expansão do MRP para incluir capacidade produtiva, finanças e simulações;&lt;/li&gt;
-	&lt;li&gt;Incorporação de planejamento financeiro integrado com o plano mestre de produção;&lt;/li&gt;
-	&lt;li&gt;Primeiro movimento em direção à integração interfuncional.&lt;/li&gt;
+&lt;li&gt;décadas de 1970–1980&lt;/li&gt;
+	&lt;li&gt;capacidade produtiva, finanças e simulações;&lt;/li&gt;
+	&lt;li&gt;planejamento financeiro integrado;&lt;/li&gt;
+	&lt;li&gt;integração interfuncional.&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/li&gt;
 	&lt;li&gt;&lt;b&gt;ERP I&lt;/b&gt;
 &lt;ul&gt;
-	&lt;li&gt;Integração total de todos os departamentos e funções empresariais;&lt;/li&gt;
-	&lt;li&gt;Inclusão de módulos de vendas, distribuição, contabilidade, RH, manutenção e outros;&lt;/li&gt;
-	&lt;li&gt;Capacidade de operar em ambientes multiempresa e multinacionais.&lt;/li&gt;
+&lt;li&gt;década de 1990 em diante&lt;/li&gt;
+	&lt;li&gt;total de todos os departamentos e funções;&lt;/li&gt;
+	&lt;li&gt;módulos de vendas, distribuição, contabilidade, RH, manutenção e outros;&lt;/li&gt;
+	&lt;li&gt;ambientes multiempresa e multinacionais.&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/li&gt;
 	&lt;li&gt;&lt;b&gt;ERP II&lt;/b&gt;
 &lt;ul&gt;
-	&lt;li&gt;com integração entre empresas via internet e cadeia de suprimentos (SCM).&lt;/li&gt;
+	&lt;li&gt;integração entre empresas via internet e cadeia de suprimentos (SCM).&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/li&gt;
 	&lt;li&gt;&lt;b&gt;ERPs baseados em nuvem (SaaS)&lt;/b&gt;
 &lt;ul&gt;
-	&lt;li&gt;que ampliam escalabilidade e flexibilidade.&lt;/li&gt;
+	&lt;li&gt;ampliam escalabilidade e flexibilidade.&lt;/li&gt;
 &lt;/ul&gt;
 &lt;/li&gt;
 &lt;/ul&gt;</t>
@@ -713,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,6 +725,407 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tipos de estoque para &lt;b&gt;Ballou (2006)&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Estoque de Segurança ou estoque isolado&lt;/li&gt;
+	&lt;li&gt;Estoque cíclico&lt;/li&gt;
+	&lt;li&gt;Estoque de desacoplamento&lt;/li&gt;
+	&lt;li&gt;Estoque de antecipação&lt;/li&gt;
+	&lt;li&gt;Estoques no canal de distribuição&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>tipos de estoque para &lt;b&gt;Brandalise (2017)&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;de matérias primas&lt;/li&gt;
+	&lt;li&gt;de produtos em processo&lt;/li&gt;
+	&lt;li&gt;de produtos acabados&lt;/li&gt;
+	&lt;li&gt;de peças de manutenção ou de reposição&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Classificação dos Estoques para &lt;b&gt;Chiavenato (2005)&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Estoques de matéria-prima&lt;/li&gt;
+	&lt;li&gt;Estoques de materiais em processamento&lt;/li&gt;
+	&lt;li&gt;Estoques de materiais semiacabados&lt;/li&gt;
+	&lt;li&gt;Estoques de materiais acabados&lt;/li&gt;
+	&lt;li&gt;Estoques de produtos acabados&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Métodos de controle de estoques &lt;b&gt;(Chiavenato - 2006)&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;ul&gt;
+	&lt;li&gt;Sistema de duas gavetas;&lt;/li&gt;
+	&lt;li&gt;Sistema dos máximos-mínimos;&lt;/li&gt;
+	&lt;li&gt;Sistema de reposições periódicas; e&lt;/li&gt;
+	&lt;li&gt;MRP.&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Métodos de Avaliação (e controle) de Estoques</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;LIFO&lt;/li&gt;
+	&lt;li&gt;FIFO&lt;/li&gt;
+	&lt;li&gt;Custo Médio&lt;/li&gt;
+	&lt;li&gt;Custo de Reposição.&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fórmula do LEC</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Q = sqrt((2xDxCp)/Ce)&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;Q = Lote&lt;/li&gt;
+	&lt;li&gt;D = Demanada&lt;/li&gt;
+	&lt;li&gt;Cp = Custo de Pedido Unitário&lt;/li&gt;
+	&lt;li&gt;Ce = Custo de manutenção de armazenamento&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Limitações da LEC (Segundo Dias, 2010)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Admite que;&lt;/li&gt;
+	&lt;li&gt;Custos de Armazenagem;&lt;/li&gt;
+	&lt;li&gt;O Custo poderá;&lt;/li&gt;
+	&lt;li&gt;Não leva em consideração;&lt;/li&gt;
+	&lt;li&gt;A fórmula se baseia;&lt;/li&gt;
+	&lt;li&gt;Algumas empresas existem; e&lt;/li&gt;
+	&lt;li&gt;Taxa de reabastecimento&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Engenharia de Métodos e Processos</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>gráficos ou recursos esquemáticos mais usualmente utilizados na Engenharia de Métodos e Processos</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Gráfico do fluxo do processo;&lt;/li&gt;
+	&lt;li&gt;Mapofluxograma;&lt;/li&gt;
+	&lt;li&gt;Carta de-para;&lt;/li&gt;
+	&lt;li&gt;Gráfico homem-máquina;&lt;/li&gt;
+	&lt;li&gt;Gráfico das duas mãos.&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Engenharia de Métodos e Processos</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>principais sistemas de medição do trabalho:</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;cronometragem&lt;/li&gt;
+	&lt;li&gt;amostragem do trabalho&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Engenharia de Métodos e Processos</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sistema de medição do trabalho: &lt;b&gt;cronometragem&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Obter e registrar&lt;/li&gt;
+	&lt;li&gt;Dividir a operação&lt;/li&gt;
+	&lt;li&gt;Observar e registrar&lt;/li&gt;
+	&lt;li&gt;Determinar o número&lt;/li&gt;
+	&lt;li&gt;Avaliar o ritmo do operador.&lt;/li&gt;
+	&lt;li&gt;Determinar o tempo normal.&lt;/li&gt;
+	&lt;li&gt;Determinar as tolerâncias.&lt;/li&gt;
+	&lt;li&gt;Determinar o tempo-padrão da operação.&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Engenharia de Métodos e Processos</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sistema de medição de trabalho: &lt;b&gt;amostragem do trabalho&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>estimativa da proporção de tempo gasto em uma determinada atividade, durante um certo período, por meio de observações instantâneas, ininterruptas e espaçadas aleatoriamente.</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,6 +1126,183 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Travessão</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Classificação e significado da palavra &lt;b&gt;dúbio&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;adjetivo&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;sujeito a diferentes interpretações; ambíguo.&lt;/li&gt;
+	&lt;li&gt;difícil de caracterizar; impreciso, indefinível, vago.&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sinônimo E Antônimo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Classficação e significado da palavra &lt;b&gt;reminiscência&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;substantivo feminino&lt;/b&gt;
+&lt;ol&gt;
+	&lt;li&gt;imagem lembrada do passado; o que se conserva na memória.&lt;/li&gt;
+	&lt;li&gt;lembrança vaga ou incompleta.&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Português</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sinônimo E Antônimo</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Classificação e significado da palavra &lt;b&gt;resignação&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;substantivo feminino&lt;/b&gt;
+&lt;ol&gt;
+	&lt;li&gt;submissão à vontade de alguém ou ao destino.&lt;/li&gt;
+	&lt;li&gt;demissão voluntária de um cargo.&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>classificação e significado da palavra, &lt;i&gt;em inglês&lt;/i&gt;, &lt;b&gt;Hence&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Adverb&lt;/b&gt;
+Por isso</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Semantic</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Classificação e significado da palavra. &lt;i&gt;em inglês&lt;/i&gt;, &lt;b&gt;yield&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Nouns&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;rendimento&lt;/li&gt;
+	&lt;li&gt;produção&lt;/li&gt;
+&lt;/ul&gt;
+&lt;b&gt;Verb&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;produzir&lt;/li&gt;
+	&lt;li&gt;dar&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1303,6 +1303,845 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Estatística</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Medidas de Variabilidade</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fórmula do &lt;b&gt;desvio padrão&lt;/b&gt;
+&lt;i&gt;amostral e populacional&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>populacional: sig&lt;sup&gt;2&lt;/sup&gt; = (sum&lt;sub&gt;i=1&lt;/sub&gt;&lt;sup&gt;n&lt;/sup&gt;(x&lt;sub&gt;i&lt;/sub&gt; - mu)&lt;sup&gt;2&lt;/sup&gt;)/n
+amostral: S&lt;sup&gt;2&lt;/sup&gt; = (sum&lt;sub&gt;i=1&lt;/sub&gt;&lt;sup&gt;n&lt;/sup&gt;(x&lt;sub&gt;i&lt;/sub&gt; - x&lt;sup&gt;-&lt;/sup&gt;)&lt;sup&gt;2&lt;/sup&gt;)/(n-1)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tipos de manutenção</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Manutenção não-planejada&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;Corretiva&lt;/li&gt;
+&lt;/ul&gt;
+&lt;b&gt;Manutenção planejada&lt;/b&gt;
+&lt;ul&gt;
+	&lt;li&gt;Corretiva&lt;/li&gt;
+	&lt;li&gt;Preventiva&lt;/li&gt;
+	&lt;li&gt;Preditiva&lt;/li&gt;
+	&lt;li&gt;Prescritiva&lt;/li&gt;
+	&lt;li&gt;Detectiva&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Princípios Fundamentais da TPM</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Maximizar a eficiência global&lt;/li&gt;
+	&lt;li&gt;Envolvimento de todos os níveis&lt;/li&gt;
+	&lt;li&gt;Prevenção de falhas&lt;/li&gt;
+	&lt;li&gt;Abordagem sistemática&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Objetivos da TPM</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Aumentar a disponibilidade&lt;/li&gt;
+	&lt;li&gt;Reduzir custos operacionais&lt;/li&gt;
+	&lt;li&gt;Melhorar a segurança&lt;/li&gt;
+	&lt;li&gt;Melhorar a segurança&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Os 8 Pilares da TPM</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Manutenção autônoma&lt;/li&gt;
+	&lt;li&gt;Manutenção planejada&lt;/li&gt;
+	&lt;li&gt;Educação e treinamento&lt;/li&gt;
+	&lt;li&gt;Melhoria focada&lt;/li&gt;
+	&lt;li&gt;Gestão da segurança e do meio ambiente&lt;/li&gt;
+	&lt;li&gt;Manutenção de qualidade&lt;/li&gt;
+	&lt;li&gt;Controle inicial&lt;/li&gt;
+	&lt;li&gt;Gestão administrativa&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>seis grandes perdas da TPM</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;por quebra de equipamento&lt;/li&gt;
+	&lt;li&gt;decorrentes de ajustes nas preparações&lt;/li&gt;
+	&lt;li&gt;nas paradas curtas e frequentes&lt;/li&gt;
+	&lt;li&gt;por uma operação abaixo da normal&lt;/li&gt;
+	&lt;li&gt;decorrentes de peças defeituosas e retrabalhos&lt;/li&gt;
+	&lt;li&gt;provenientes do início da produção&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>três fatores importantes da TPM</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;busca pelo lucro através da economicidade&lt;/li&gt;
+	&lt;li&gt;ser um sistema integrado&lt;/li&gt;
+	&lt;li&gt;próprio operador executa a manutenção&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Pontos-chave para implementação da TPM:</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Capacitação;&lt;/li&gt;
+	&lt;li&gt;Aplicar o programa 5s/8s;&lt;/li&gt;
+	&lt;li&gt;Eliminar as 6 grandes perdas;&lt;/li&gt;
+	&lt;li&gt;Aplicar as 5 ações para alcançar a "quebra zero":&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fórmula do MTBF</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Tempo Médio Entre Falhas&lt;/b&gt;
+MTBF = (Tempo Total Disponível - Tempo das Paradas ou Tempo Perdido)/Quantidade de Paradas;</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fórmula do MTTR</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Tempo Médio de Reparo&lt;/b&gt;
+MTTR = (Tempo de Parada)/Quantidade de Paradas;</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Disponibilidade&lt;/b&gt;
+&lt;i&gt;Definição e Fórmula&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Definição&lt;/b&gt;
+expressa como a porcentagem de tempo em que um ativo está operando, em comparação com o tempo total de operação programado
+Disponibilidade = MTBF/(MTBF + MTTR)
+&lt;b&gt;ou&lt;/b&gt;
+Disponibilidade = Tempo disponível/(Tempo disponível + Tempo em manutenção)</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Taxa de Falha (λ)&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Taxa de Falha (λ) = 1/MTBF</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Manutenabilidade</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>facilidade com que as atividades de manutenção podem ser realizadas em um ativo ou equipamento</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Confiabilidade</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>probabilidade de que um produto, sistema ou serviço desempenhe sua função pretendida adequadamente por um período de tempo especificado</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Curva P-F</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Curva que mostra a performance do equipamento em função do tempo, trazendo dois pontos.
+&lt;ul&gt;
+	&lt;li&gt;P - Falha Pontencial: Momento em que é identificado que o equipamento está prestes a falhar&lt;/li&gt;
+	&lt;li&gt;F - Falha Funcional: Momento em que o equipamento falha&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fórmula da Confiabilidade</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>R(t) = e&lt;sup&gt;-λt&lt;/sup&gt;</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Formulas para a confiabilidade de sistemas &lt;b&gt;em série&lt;/b&gt; e &lt;b&gt;em paralelo&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Em série&lt;/b&gt;
+R&lt;sub&gt;s&lt;/sub&gt; = P&lt;sub&gt;1&lt;/sub&gt; × P&lt;sub&gt;2&lt;/sub&gt; × ... × P&lt;sub&gt;n&lt;/sub&gt;
+&lt;b&gt;Em paralelo&lt;/b&gt;
+Rs = 1 - [(1 - P&lt;sub&gt;1&lt;/sub&gt;) x (1 - P&lt;sub&gt;2&lt;/sub&gt;) x (1 - P&lt;sub&gt;3&lt;/sub&gt;) x ... x (1 - P&lt;sub&gt;n&lt;/sub&gt;)]</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>etapas do FMEA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Função do equipamento&lt;/li&gt;
+	&lt;li&gt;Falha funcional&lt;/li&gt;
+	&lt;li&gt;Componente&lt;/li&gt;
+	&lt;li&gt;Modo (s) de falha potencial&lt;/li&gt;
+	&lt;li&gt;Efeito (s) potencial (is) da falha&lt;/li&gt;
+	&lt;li&gt;Causa (s) potencial (is) de falha&lt;/li&gt;
+	&lt;li&gt;Controles atuais&lt;/li&gt;
+	&lt;li&gt;Frequência do processo atual&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Etapas do processo do RCFA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Identificação dos sintomas&lt;/li&gt;
+	&lt;li&gt;Avaliação das causas endereçáveis&lt;/li&gt;
+	&lt;li&gt;Coletando e analisando dados&lt;/li&gt;
+	&lt;li&gt;Isolando e testando variáveis&lt;/li&gt;
+	&lt;li&gt;Identificando a (s) causa (s)&lt;/li&gt;
+	&lt;li&gt;Criação e implementação de um plano de ação&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3 fases da FTA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Identificar o perigo;&lt;/li&gt;
+	&lt;li&gt;Obter entendimento do sistema que está sendo analisado;&lt;/li&gt;
+	&lt;li&gt;Criar a árvore de falhas;&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fórmula da função densidade de probabilidade exponencial f(t)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>f(t) = λe&lt;sup&gt;−λt&lt;/sup&gt;, t ≥ 0</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Fórmula da função de distribuição exponencial acumulada F(t)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>F(t) = 1−e&lt;sup&gt;−λt&lt;/sup&gt;</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Função confiabilidade&lt;/b&gt;
+&lt;i&gt;Definição e fórmula&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Definição&lt;/b&gt;
+representa a probabilidade de que um equipamento permaneça em funcionamento até o tempo t, &lt;u&gt;sem apresentar falhas&lt;/u&gt;:
+&lt;b&gt;Fórmula&lt;/b&gt;
+R(t) = e&lt;sup&gt;−λt&lt;/sup&gt;</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gestão da Manutenção e Confiabilidade</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Fórmula para estimar a taxa de falhas</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>λ=k/n⋅Δt 
+&lt;ul&gt;
+	&lt;li&gt;&lt;i&gt;onde:&lt;/i&gt;&lt;/li&gt;
+	&lt;li&gt;λ: taxa de falha estimada;&lt;/li&gt;
+	&lt;li&gt;k: número total de falhas registradas;&lt;/li&gt;
+	&lt;li&gt;n: número de equipamentos monitorados (ou unidades observadas);&lt;/li&gt;
+	&lt;li&gt;Δt: intervalo de tempo de observação (em horas, dias, semanas etc.).&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2142,6 +2142,790 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tipos de Arranjo Físico</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Posicional (posição fixa)&lt;/li&gt;
+	&lt;li&gt;Funcional (por processo)&lt;/li&gt;
+	&lt;li&gt;Celular
+&lt;ul&gt;
+	&lt;li&gt;Por produto&lt;/li&gt;
+	&lt;li&gt;Por processo&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+	&lt;li&gt;Por processo (em linha/fluxo)&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Arranjo Físico Posicional&lt;/b&gt;
+&lt;i&gt;Caracterísitcas&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;recurso transformado permanece fixo&lt;/li&gt;
+	&lt;li&gt;recursos transformadores se movimentam ao seu redor&lt;/li&gt;
+	&lt;li&gt;produto é muito grande, pesado, frágil ou complexo&lt;/li&gt;
+	&lt;li&gt;Características detalhadas:
+&lt;ul&gt;
+	&lt;li&gt;produção por projeto;&lt;/li&gt;
+	&lt;li&gt;Elevada complexidade de coordenação das atividades;&lt;/li&gt;
+	&lt;li&gt;Alto custo unitário&lt;/li&gt;
+	&lt;li&gt;Espaço limitado para alocar recursos;&lt;/li&gt;
+	&lt;li&gt;Grande dependência de planejamento logístico e sequenciamento de tarefas.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Arranjo Físico Funcional (Por processo)&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Recursos similares são agrupados em áreas especializadas&lt;/li&gt;
+	&lt;li&gt;permitindo que produtos ou clientes sigam roteiros &lt;b&gt;distintos&lt;/b&gt; de acordo com suas necessidades&lt;/li&gt;
+	&lt;li&gt;Características:
+&lt;ul&gt;
+	&lt;li&gt;Alta flexibilidade;&lt;/li&gt;
+	&lt;li&gt;Processos semelhantes juntos&lt;/li&gt;
+	&lt;li&gt;Alto nível de estoques em processo;&lt;/li&gt;
+	&lt;li&gt;Fluxo não linear, com roteiros personalizados.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Arranjo Físico Celular&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Forma híbrida entre os arranjos &lt;b&gt;funcional &lt;/b&gt;e &lt;b&gt;em linha&lt;/b&gt;&lt;/li&gt;
+	&lt;li&gt;Recursos necessários são agrupados em células especializadas&lt;/li&gt;
+	&lt;li&gt;Quando utilizado:
+&lt;ul&gt;
+	&lt;li&gt;Produção em bateladas/grandes lotes;&lt;/li&gt;
+	&lt;li&gt;Alta variedade com volume considerável;&lt;/li&gt;
+	&lt;li&gt;Necessidade de autonomia operacional nas células.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+	&lt;li&gt;Comparativo com funcional:
+&lt;ul&gt;
+	&lt;li&gt;Enquanto no funcional os recursos são separados por tipo, no celular eles são agrupados por produto ou família de produto.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Arranjo Celular por Produto&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;cada célula é organizada para atender a um produto específico ou uma família de produtos semelhantes&lt;/li&gt;
+	&lt;li&gt;O foco está no resultado final da célula, ou seja, no produto a ser entregue&lt;/li&gt;
+	&lt;li&gt;Os recursos dentro da célula são agrupados com o objetivo de produzir aquele produto do início ao fim (ou grande parte dele).&lt;/li&gt;
+&lt;li&gt;Características:
+&lt;ul&gt;
+	&lt;li&gt;Ideal para variedade moderada com repetição;&lt;/li&gt;
+	&lt;li&gt;Processos tendem a ser sequenciais;&lt;/li&gt;
+	&lt;li&gt;Pode se assemelhar ao arranjo por produto, mas com flexibilidade.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Arranjo Celular por Processo&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;ul&gt;
+	&lt;li&gt;a célula é formada por processos similares ou complementares&lt;/li&gt;
+	&lt;li&gt;foco está na especialização funcional dentro da célula&lt;/li&gt;
+	&lt;li&gt;produtos passando por diferentes células de acordo com o roteiro necessário.&lt;/li&gt;
+	&lt;li&gt;Características:
+&lt;ul&gt;
+	&lt;li&gt;Produtos diferentes podem passar pelas mesmas células;&lt;/li&gt;
+	&lt;li&gt;Mais próximo do arranjo funcional, porém com integração interna maior.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Layout e Arranjos Físicos</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Arranjo Físico por Produto (ou Em linha/Fluxo)&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;sequência lógica de transformação do produto&lt;/li&gt;
+	&lt;li&gt;Ideal para processos repetitivos e com alta demanda.&lt;/li&gt;
+	&lt;li&gt;Características:
+&lt;ul&gt;
+	&lt;li&gt;Alto nível de padronização;&lt;/li&gt;
+	&lt;li&gt;Alto nível de padronização;&lt;/li&gt;
+	&lt;li&gt;Alta eficiência e produtividade;&lt;/li&gt;
+	&lt;li&gt;Baixa flexibilidade.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Processo de Inovação&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Geração de Ideias&lt;/li&gt;
+	&lt;li&gt;Avaliação&lt;/li&gt;
+	&lt;li&gt;Experimentação&lt;/li&gt;
+	&lt;li&gt;Comercialização&lt;/li&gt;
+	&lt;li&gt;Acompanhamento&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Modelos de Inovação:  &lt;b&gt;Inovação aberta&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;cunhado pelo pesquisador Henry Chesbrough, em 2003&lt;/li&gt;
+	&lt;li&gt;Chesbrough observou que as inovações mais disruptivas aconteciam com a ajuda de colaboradores externos e empresas externas.&lt;/li&gt;
+	&lt;li&gt;acontece de 3 formas: &lt;ul&gt; &lt;li&gt;Inbound&lt;/li&gt; &lt;li&gt;Outbound&lt;/li&gt; &lt;li&gt;Coupled&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Modelos de Inovação: &lt;b&gt;Inovação fechada&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;modelo de inovação que precede a inovação aberta&lt;/li&gt;
+	&lt;li&gt;inovação que não cruza as paredes do ambiente da empresa&lt;/li&gt;
+	&lt;li&gt;acontece uma limitação do que a ideia pode se tornar&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Indicadores de Inovação</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Redução de Custos&lt;/li&gt;
+	&lt;li&gt;Pesquisa e Desenvolvimento&lt;/li&gt;
+	&lt;li&gt;Investimento Médio por Projeto&lt;/li&gt;
+	&lt;li&gt;ROI (Return on Investment)&lt;/li&gt;
+	&lt;li&gt;Ideias Geradas&lt;/li&gt;
+	&lt;li&gt;Ideias por Colaborador&lt;/li&gt;
+	&lt;li&gt;Tempo de Comercialização&lt;/li&gt;
+	&lt;li&gt;Projetos em Andamento&lt;/li&gt;
+	&lt;li&gt;Quantidade de Inovações&lt;/li&gt;
+	&lt;li&gt;Quantidade de Patentes&lt;/li&gt;
+	&lt;li&gt;Tempo Gasto por Projeto&lt;/li&gt;
+	&lt;li&gt;Taxa de Sucesso&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tipos de Inovação</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Inovação de Processos:&lt;/li&gt;
+	&lt;li&gt;Inovação de Produto:&lt;/li&gt;
+	&lt;li&gt;Inovação de Serviços:&lt;/li&gt;
+	&lt;li&gt;Inovação Organizacional:&lt;/li&gt;
+	&lt;li&gt;Inovação de Marketing:&lt;/li&gt;
+	&lt;li&gt;Inovação Incremental:&lt;/li&gt;
+	&lt;li&gt;Inovação Radical: &lt;ul&gt; &lt;li&gt;Incerteza Técnica:&lt;/li&gt; &lt;li&gt;Incertezas de Mercado:&lt;/li&gt; &lt;li&gt;Incertezas Organizacionais:&lt;/li&gt; &lt;li&gt;Incertezas de Recursos:&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;Inovação Disruptiva:&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Inovação em modelo de negócios</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>baseada no conceito do BMC (Business Model Canvas), criado por Osterwalder e Pigneur (2010)
+princípios e dimensões &lt;ul&gt; &lt;li&gt;Criação de Valor: &lt;ul&gt; &lt;li&gt;Atividades-chave:&lt;/li&gt; &lt;li&gt;Recursos-chave:&lt;/li&gt; &lt;li&gt;Parcerias-chave:&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;Entrega de Valor: &lt;ul&gt; &lt;li&gt;Canais:&lt;/li&gt; &lt;li&gt;Segmento de Clientes:&lt;/li&gt; &lt;li&gt;Relacionamento com o cliente:&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;Captura de Valor: &lt;ul&gt; &lt;li&gt;Estrutura de Custos:&lt;/li&gt; &lt;li&gt;Fontes de Receita:&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;
+inovação que mais afeta a empresa no geral
+envolve diversos tipos de outras inovações
+quatro áreas para se focar e mudar as coisas &lt;ul&gt; &lt;li&gt;Oferta&lt;/li&gt; &lt;li&gt;Consumidores&lt;/li&gt; &lt;li&gt;Processos&lt;/li&gt; &lt;li&gt;Canais de Entrega&lt;/li&gt; &lt;/ul&gt;
+fatores que levam uma empresa a investir na inovação de Modelo de Negócios &lt;ul&gt; &lt;li&gt;Reação&lt;/li&gt; &lt;li&gt;Adaptação&lt;/li&gt; &lt;li&gt;Adaptação&lt;/li&gt; &lt;li&gt;Proatividade&lt;/li&gt; &lt;li&gt;&lt;/ul&gt;
+imprevisível e caótica
+atitudes que são levadas em conta na hora de montar e avaliar um novo modelo de negócios: &lt;ul&gt; &lt;li&gt;Atitude de Design&lt;/li&gt; &lt;li&gt;Atitude de Decisão.&lt;/li&gt; &lt;/ul&gt;
+Processo de inovação em modelo de negócios (Business Model Generation): &lt;ul&gt; &lt;li&gt;Mobilização&lt;/li&gt; &lt;li&gt;Compreensão&lt;/li&gt; &lt;li&gt;Design&lt;/li&gt; &lt;li&gt;Implementação&lt;/li&gt; &lt;li&gt;Gerenciamento&lt;/li&gt; &lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Gestão da Inovação</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Cultura Organizacional para a Inovação</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;pilares de uma organização com cultura inovadora:&lt;/b&gt;
+&lt;ul&gt; &lt;li&gt;Valores&lt;/li&gt; &lt;li&gt;Visão&lt;/li&gt; &lt;li&gt;Transparência&lt;/li&gt; &lt;li&gt;Regras&lt;/li&gt; &lt;li&gt;Ambientes&lt;/li&gt; &lt;li&gt;Flexibilidade&lt;/li&gt; &lt;li&gt;Gestão do Tempo&lt;/li&gt; &lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Tipos de Projetos</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;social&lt;/li&gt;
+	&lt;li&gt;pessoal&lt;/li&gt;
+	&lt;li&gt;cultural&lt;/li&gt;
+	&lt;li&gt;empresarial&lt;/li&gt;
+	&lt;li&gt;de pesquisa&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Etapas/Fases de um projeto</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Concepção/Iniciação;&lt;/li&gt;
+	&lt;li&gt;Planejamento;&lt;/li&gt;
+	&lt;li&gt;Execução;&lt;/li&gt;
+	&lt;li&gt;Monitoramento e Controle; e&lt;/li&gt;
+	&lt;li&gt;Encerramento/Conclusão&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Etapas/Fases de um projeto</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Concepção/Iniciação;&lt;/li&gt;
+	&lt;li&gt;Planejamento;&lt;/li&gt;
+	&lt;li&gt;Execução;&lt;/li&gt;
+	&lt;li&gt;Monitoramento e Controle; e&lt;/li&gt;
+	&lt;li&gt;Encerramento/Conclusão&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fórmula do IDC</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>IDC = Valor agregado/Custo real</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;PMBOK&lt;/b&gt; - &lt;i&gt;áreas de conhecimento&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerenciamento de integração de projetos &lt;ul&gt; &lt;li&gt;Preparação do termo de abertura do Projeto&lt;/li&gt; &lt;li&gt;Desenvolvimento do Plano de Gerenciamento&lt;/li&gt; &lt;li&gt;Orientação e gerenciamento da execução&lt;/li&gt; &lt;li&gt;Monitoramento do trabalho realizado&lt;/li&gt; &lt;li&gt;Controle integrado das Mudanças&lt;/li&gt; &lt;li&gt;Encerramento do projeto ou de uma fase do projeto&lt;/li&gt; &lt;/ul&gt;
+Gerenciamento de escopo de projetos &lt;ul&gt; &lt;li&gt;Planejamento do gerenciamento de escopo&lt;/li&gt; &lt;li&gt;Coleta dos requisitos&lt;/li&gt; &lt;li&gt;Definição do escopo de gerenciamento&lt;/li&gt; &lt;li&gt;Criação da EAP&lt;/li&gt; &lt;li&gt;Validação do Escopo&lt;/li&gt; &lt;li&gt;Controle do Escopo&lt;/li&gt; &lt;/ul&gt;
+Gerenciamento de cronograma &lt;ul&gt; &lt;li&gt;Planejamento do Gerenciamento do Cronograma&lt;/li&gt; &lt;li&gt;Definição das Atividades&lt;/li&gt; &lt;li&gt;Sequenciamento das Atividades&lt;/li&gt; &lt;li&gt;Estimativa da duração das Atividades&lt;/li&gt; &lt;li&gt;Desenvolvimento do Cronograma&lt;/li&gt; &lt;li&gt;Controle do Cronograma&lt;/li&gt; &lt;/ul&gt;
+Gerenciamento de custos &lt;ul&gt; &lt;li&gt;Planejamento de Custos&lt;/li&gt; &lt;li&gt;Estimativa dos Custos&lt;/li&gt; &lt;li&gt;Controle dos Custos&lt;/li&gt; &lt;li&gt;Estudo dos Custos&lt;/li&gt; &lt;li&gt;Revisões no orçamento&lt;/li&gt; &lt;/ul&gt;
+Gerenciamento da qualidade &lt;ul&gt; &lt;li&gt;Planejamento da Gestão de Qualidade&lt;/li&gt; &lt;li&gt;Garantia da Qualidade&lt;/li&gt; &lt;li&gt;Controle de Qualidade&lt;/li&gt; &lt;/ul&gt;
+Gerenciamento da comunicação &lt;ul&gt; &lt;li&gt;Planejamento do Gerenciamento de Comunicação&lt;/li&gt; &lt;li&gt;Gerenciamento das Comunicações&lt;/li&gt; &lt;li&gt;Controle das Comunicações&lt;/li&gt; &lt;/ul&gt;
+Gerenciamento dos riscos &lt;ul&gt; &lt;li&gt;Planejamento do Gerenciamento de Riscos&lt;/li&gt; &lt;li&gt;Identificação dos Riscos&lt;/li&gt; &lt;li&gt;Análise Qualitativa&lt;/li&gt; &lt;li&gt;Análise Quantitativa&lt;/li&gt; &lt;li&gt;Planejamento de resposta&lt;/li&gt; &lt;li&gt;Controle de Riscos&lt;/li&gt; &lt;/ul&gt;
+Gerenciamento de aquisições do projeto &lt;ul&gt; &lt;li&gt;Planejamento do Gerenciamento de Aquisições&lt;/li&gt; &lt;li&gt;Condução das Aquisições&lt;/li&gt; &lt;li&gt;Controle das Aquisições&lt;/li&gt; &lt;/ul&gt;
+Gerenciamento das partes interessadas no projeto &lt;ul&gt; &lt;li&gt;Iniciação&lt;/li&gt; &lt;li&gt;Planejamento&lt;/li&gt; &lt;li&gt;Execução&lt;/li&gt; &lt;li&gt;Controle&lt;/li&gt; &lt;/ul&gt;
+</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Gestão de Projetos</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CPM: definições de &lt;b&gt;folga livre&lt;/b&gt; e &lt;b&gt;folga total&lt;/b&gt;</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;b&gt;folga livre:&lt;/b&gt; É a quantidade de tempo que uma atividade pode atrasar sem atrasar as atividades posteriores;
+&lt;b&gt;folga total:&lt;/b&gt; E a quantidade de tempo que uma atividade pode atrasar sem atrasar a data final do projeto;
+</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2926,6 +2926,563 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Conceito de Logística (&lt;i&gt;Council of Logistics Management&lt;/i&gt;):</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>é o processo de controle, planejamento e implementação do fluxo</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>objetivo da logística, Ballou (2005):</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>dispor a mercadoria ou o serviço certo, no lugar certo, no tempo certo e nas condições desejadas</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>tripé logístico</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Transporte;&lt;/li&gt;
+	&lt;li&gt;Distribuição; e&lt;/li&gt;
+	&lt;li&gt;Armazenagem.&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>divisão da logística segundo algumas literaturas</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Atividades primárias: &lt;ul&gt; &lt;li&gt;Transportes,&lt;/li&gt; &lt;li&gt;Processamento de Pedidos e&lt;/li&gt; &lt;li&gt;Manutenção de estoques;&lt;/li&gt; &lt;/ul&gt; &lt;i&gt;Minemônico (TPM)&lt;/i&gt;&lt;/li&gt;
+	&lt;li&gt;Atividades de apoio: &lt;ul&gt; &lt;li&gt;Armazenagem,&lt;/li&gt; &lt;li&gt;Manuseio de Materiais,&lt;/li&gt; &lt;li&gt;Embalagem de Proteção,&lt;/li&gt; &lt;li&gt;Obtenção, Programação de Produtos e&lt;/li&gt; &lt;li&gt;Manutenção de Informação.&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Processo de fluxo de materias:</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>&lt;ol&gt;
+	&lt;li&gt;Entradas - Fornecedores&lt;/li&gt;
+	&lt;li&gt;Estoque/Arm azenamento&lt;/li&gt;
+	&lt;li&gt;Processo Produtivo&lt;/li&gt;
+	&lt;li&gt;Produtos acabados (depósito)&lt;/li&gt;
+	&lt;li&gt;Saídas - Clientes&lt;/li&gt;
+&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Classe de materiais ao longo do processo produtivo</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Matéria-prima&lt;/li&gt;
+	&lt;li&gt;Materiais em processamento&lt;/li&gt;
+	&lt;li&gt;Materiais semiacabados&lt;/li&gt;
+	&lt;li&gt;Materiais acabados&lt;/li&gt;
+	&lt;li&gt;Produtos acabados&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Transporte:&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Conceito: &lt;ul&gt; &lt;li&gt;parte do processo logístico responsável por levar os produtos ao consumidor final e/ou entre fornecedor e produtor&lt;/li&gt; &lt;/ul&gt;
+corresponde, em média, a 2/3 de todo o custo logístico
+fatores determinantes em relação ao transporte é a escolha do modal: &lt;ul&gt; &lt;li&gt;Custo do transporte;&lt;/li&gt; &lt;li&gt;Velocidade com que o produto é transportado;&lt;/li&gt; &lt;li&gt;Tipo de manuseio do produto durante o transporte; e&lt;/li&gt; &lt;li&gt;Quantidade de viagens&lt;/li&gt; &lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Modais de Transporte:</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;ul&gt; &lt;li&gt;&lt;b&gt;Aeroviário &lt;/b&gt;&lt;ul&gt; &lt;li&gt;Vantages: &lt;ul&gt; &lt;li&gt;longas distâncias, independente da geografia&lt;/li&gt; &lt;li&gt;mais rápido dentre os modais&lt;/li&gt; &lt;li&gt;Menor custo com embalagens&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;volume pequeno&lt;/li&gt; &lt;li&gt;custo mais elevado&lt;/li&gt; &lt;li&gt;geralmente precisa de outro modal para concluir o transporte&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Aquaviário &lt;/b&gt;&lt;ul&gt; &lt;li&gt;&lt;b&gt;Marítimo:&lt;/b&gt; mares e oceanos&lt;/li&gt; &lt;li&gt;&lt;b&gt;Fluvial:&lt;/b&gt; rios&lt;/li&gt; &lt;li&gt;&lt;b&gt;Lacustre:&lt;/b&gt; lagos e lagoas.&lt;/li&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;Maior capacidade de carga entre os modais;&lt;/li&gt; &lt;li&gt;grandes distâncias de forma autônoma&lt;/li&gt; &lt;li&gt;Baixo custo unitário de carregamento&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;mais lento entre os modais;&lt;/li&gt; &lt;li&gt;Maior suscetibilidade as mudanças da natureza;&lt;/li&gt; &lt;li&gt;Necessidade de terminais especializados&lt;/li&gt; &lt;li&gt;Desembaraço burocrático&lt;/li&gt; &lt;li&gt;Alto custo quanto ao seguro&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Ferroviário &lt;/b&gt;&lt;ul&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;Baixo custo&lt;/li&gt; &lt;li&gt;Menor risco de acidentes&lt;/li&gt; &lt;li&gt;grande capacidade&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;geralmente precisa de outro modal para concluir o transporte&lt;/li&gt; &lt;li&gt;Baixo investimento governamental&lt;/li&gt; &lt;li&gt;Rotas fixas e inflexíveis&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Rodoviário&lt;/b&gt; &lt;ul&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;acessibilidade&lt;/li&gt; &lt;li&gt;Rapidez para contratação&lt;/li&gt; &lt;li&gt;Rotas flexíveis&lt;/li&gt; &lt;li&gt;Menor burocracia entre os modais&lt;/li&gt; &lt;li&gt;Menor custo de estrutura e alto investimento gorvenamental&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;Gastos com pedágio&lt;/li&gt; &lt;li&gt;aumento de combustíveis tendem a aumentar o valor do frete&lt;/li&gt; &lt;li&gt;capacidade de carga é bem menor&lt;/li&gt; &lt;li&gt;baixa autonomia de deslocamento&lt;/li&gt; &lt;li&gt;Maior chance de extravio&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Dutoviário &lt;/b&gt;&lt;ul&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;transporta grande volume de carga de forma constante&lt;/li&gt; &lt;li&gt;grande confiabilidade no processo&lt;/li&gt; &lt;li&gt;Baixos custos operacionais;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;Desvantagens: &lt;ul&gt; &lt;li&gt;Custo inicial para implantação altíssimo&lt;/li&gt; &lt;li&gt;Burocracia ambiental&lt;/li&gt; &lt;li&gt;Reduzida flexibilidade de trajeto.&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;
+</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Classificação dos Modais:</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;Velocidade de Transporte:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Disponibilidade:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Confiabilidade: &lt;/b&gt;&lt;ol&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Capacidade de Carga:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Frequência:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Distribuição&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;ul&gt;
+	&lt;li&gt;&lt;b&gt;Caonceito:&lt;/b&gt; &lt;ul&gt; &lt;li&gt;conjunto de ações voltadas à gestão de materiais, iniciando com a saída do produto do processo produtivo e terminando com a entrega no ponto final de consumo&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;fatores mais importantes ligados à distribuição&lt;/b&gt; &lt;ul&gt; &lt;li&gt;Conferência de cargas;&lt;/li&gt; &lt;li&gt;Gestão do frete;&lt;/li&gt; &lt;li&gt;Gestão do transporte;&lt;/li&gt; &lt;li&gt;Análise e desempenho de indicadores;&lt;/li&gt; &lt;li&gt;Gestão de Rotas ou Roteirização.&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;
+</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Armazenamento&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;atividades que compreende a armazenagem: &lt;ul&gt; &lt;li&gt;receber&lt;/li&gt; &lt;li&gt;carregar&lt;/li&gt; &lt;li&gt;descarregar&lt;/li&gt; &lt;li&gt;conservar&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;quatro pontos principais para que uma empresa decida destinar uma parte de sua área útil à armazenagem, Ballou (1993): &lt;ul&gt; &lt;li&gt;reduzir custos de transporte e produção&lt;/li&gt; &lt;li&gt;coordenação de suprimento e demanda&lt;/li&gt; &lt;li&gt;auxílio ao processo de produção&lt;/li&gt; &lt;li&gt;&lt;u&gt;auxílio ao processo de marketing.&lt;/u&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;funções da armazenagem, Ballou (1993): &lt;ul&gt; &lt;li&gt;Abrigo de produtos&lt;/li&gt; &lt;li&gt;Consolidação&lt;/li&gt; &lt;li&gt;Transferência e Transbordo&lt;/li&gt; &lt;li&gt;Agrupamento&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;codificação:&lt;/b&gt; &lt;ul&gt; &lt;li&gt;catalogar, simplificar, especificar, normatizar e padronizar todo o estoque&lt;/li&gt; &lt;li&gt;11 dígitos: &lt;ol&gt; &lt;li&gt;XX - Grupo&lt;/li&gt; &lt;li&gt;XX - Classe&lt;/li&gt; &lt;li&gt;XXXXXX - Código de identificação&lt;/li&gt; &lt;li&gt;X - Dígito de Controle&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;embalagens:&lt;/b&gt; &lt;ul&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;proteção ao produto &lt;ul&gt; &lt;li&gt;manuseio&lt;/li&gt; &lt;li&gt;transporte&lt;/li&gt; &lt;li&gt;armazenagem&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;ações pelos quais passam os materiais armazenados: &lt;ul&gt; &lt;li&gt;Especificação&lt;/li&gt; &lt;li&gt;Simplificação&lt;/li&gt; &lt;li&gt;Codificação&lt;/li&gt; &lt;li&gt;Padronização&lt;/li&gt; &lt;li&gt;Catalogação&lt;/li&gt; &lt;li&gt;Normalização&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;sistemas de armazenamento:&lt;/b&gt; &lt;ul&gt; &lt;li&gt;Sistema WMS&lt;/li&gt; &lt;li&gt;Racks&lt;/li&gt; &lt;li&gt;Mezanino&lt;/li&gt; &lt;li&gt;Sistema de carrossel&lt;/li&gt; &lt;li&gt;Porta-paletes&lt;/li&gt; &lt;li&gt;Flow Rack&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sistemas Logísticos</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;TMS&lt;/li&gt;
+	&lt;li&gt;WMS&lt;/li&gt;
+	&lt;li&gt;Sistema de monitoramento de cargas&lt;/li&gt;
+	&lt;li&gt;Sistemas de roteirização&lt;/li&gt;
+	&lt;li&gt;Sistemas de gestão de frotas.&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Logística Reversa&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;responsabilidade sobre os resíduos produzidos em decorrência do consumo de bens&lt;/li&gt;
+	&lt;li&gt;devolução, reciclagem e adequada destinação de produtos pós-venda e pós consumo.&lt;/li&gt;
+	&lt;li&gt;etapas: &lt;ol&gt; &lt;li&gt;Devolução da embalagem ou resíduo para o comerciante;&lt;/li&gt; &lt;li&gt;O comerciante devolve para ao fabricante; e&lt;/li&gt; &lt;li&gt;O fabricante destina para reuso, reciclagem ou descarte adequado.&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt;
+	&lt;li&gt;leis que devem ser cumpridas&lt;/li&gt;
+	&lt;li&gt;preocupação com a lucratividade e sustentabilidade desse processo&lt;/li&gt;
+	&lt;li&gt;reversa: &lt;ul&gt; &lt;li&gt;transporte dos produtos nas mãos dos clientes de volta para a empresa&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;atividades: &lt;ul&gt; &lt;li&gt;aterro sanitário&lt;/li&gt; &lt;li&gt;doação&lt;/li&gt; &lt;li&gt;processamento das devoluções&lt;/li&gt; &lt;li&gt;reciclagem&lt;/li&gt; &lt;li&gt;reembalagem&lt;/li&gt; &lt;li&gt;remanufatura&lt;/li&gt; &lt;li&gt;revenda&lt;/li&gt; &lt;li&gt;revitalização&lt;/li&gt; &lt;li&gt;recuperação de cargas roubadas ou perdidas&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Logística Verde&lt;/b&gt;
+&lt;i&gt;Conceito&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>procedimentos de logística que objetivam a preservação do meio ambiente, que incluem desde a embalagem até o modal de transporte utilizado</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Logística de Pós-consumo&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;favorece o retorno dos produtos após serem utilizados pelos clientes, visando: &lt;ul&gt; &lt;li&gt;reciclagem&lt;/li&gt; &lt;li&gt;reutilização ou&lt;/li&gt; &lt;li&gt;descarte apropriado&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;&lt;b&gt;motivação:&lt;/b&gt; &lt;ul&gt; &lt;li&gt;quantidade de materiais descartados pela sociedade desde o século XX até os dias de hoje &lt;ul&gt; &lt;li&gt;Diminuilção do ciclo de vida dos produtos&lt;/li&gt; &lt;/ul&gt; &lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;destinos para um produto após descarte: &lt;ul&gt; &lt;li&gt;local seguro (aterro sanitário)&lt;/li&gt; &lt;li&gt;local não seguro&lt;/li&gt; &lt;li&gt;Reciclagem&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Logística de Pós-venda&lt;/b&gt;
+&lt;i&gt;Características&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;uma das suas preocupações-chave: &lt;/b&gt;&lt;ul&gt; &lt;li&gt;criar um canal acessível para clientes retornarem &lt;b&gt;produtos&lt;/b&gt;. &lt;ul&gt; &lt;li&gt;defeitos de fabricação ou&lt;/li&gt; &lt;li&gt;erros no pedido&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2982,10 +2982,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3162,12 +3162,14 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3181,27 +3183,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Modais de Transporte:</t>
+          <t>Classificação dos Modais:</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;ul&gt; &lt;li&gt;&lt;b&gt;Aeroviário &lt;/b&gt;&lt;ul&gt; &lt;li&gt;Vantages: &lt;ul&gt; &lt;li&gt;longas distâncias, independente da geografia&lt;/li&gt; &lt;li&gt;mais rápido dentre os modais&lt;/li&gt; &lt;li&gt;Menor custo com embalagens&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;volume pequeno&lt;/li&gt; &lt;li&gt;custo mais elevado&lt;/li&gt; &lt;li&gt;geralmente precisa de outro modal para concluir o transporte&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Aquaviário &lt;/b&gt;&lt;ul&gt; &lt;li&gt;&lt;b&gt;Marítimo:&lt;/b&gt; mares e oceanos&lt;/li&gt; &lt;li&gt;&lt;b&gt;Fluvial:&lt;/b&gt; rios&lt;/li&gt; &lt;li&gt;&lt;b&gt;Lacustre:&lt;/b&gt; lagos e lagoas.&lt;/li&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;Maior capacidade de carga entre os modais;&lt;/li&gt; &lt;li&gt;grandes distâncias de forma autônoma&lt;/li&gt; &lt;li&gt;Baixo custo unitário de carregamento&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;mais lento entre os modais;&lt;/li&gt; &lt;li&gt;Maior suscetibilidade as mudanças da natureza;&lt;/li&gt; &lt;li&gt;Necessidade de terminais especializados&lt;/li&gt; &lt;li&gt;Desembaraço burocrático&lt;/li&gt; &lt;li&gt;Alto custo quanto ao seguro&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Ferroviário &lt;/b&gt;&lt;ul&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;Baixo custo&lt;/li&gt; &lt;li&gt;Menor risco de acidentes&lt;/li&gt; &lt;li&gt;grande capacidade&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;geralmente precisa de outro modal para concluir o transporte&lt;/li&gt; &lt;li&gt;Baixo investimento governamental&lt;/li&gt; &lt;li&gt;Rotas fixas e inflexíveis&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Rodoviário&lt;/b&gt; &lt;ul&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;acessibilidade&lt;/li&gt; &lt;li&gt;Rapidez para contratação&lt;/li&gt; &lt;li&gt;Rotas flexíveis&lt;/li&gt; &lt;li&gt;Menor burocracia entre os modais&lt;/li&gt; &lt;li&gt;Menor custo de estrutura e alto investimento gorvenamental&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;Gastos com pedágio&lt;/li&gt; &lt;li&gt;aumento de combustíveis tendem a aumentar o valor do frete&lt;/li&gt; &lt;li&gt;capacidade de carga é bem menor&lt;/li&gt; &lt;li&gt;baixa autonomia de deslocamento&lt;/li&gt; &lt;li&gt;Maior chance de extravio&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Dutoviário &lt;/b&gt;&lt;ul&gt; &lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;transporta grande volume de carga de forma constante&lt;/li&gt; &lt;li&gt;grande confiabilidade no processo&lt;/li&gt; &lt;li&gt;Baixos custos operacionais;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;li&gt;Desvantagens: &lt;ul&gt; &lt;li&gt;Custo inicial para implantação altíssimo&lt;/li&gt; &lt;li&gt;Burocracia ambiental&lt;/li&gt; &lt;li&gt;Reduzida flexibilidade de trajeto.&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;
-</t>
+          <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;Velocidade de Transporte:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Disponibilidade:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Confiabilidade: &lt;/b&gt;&lt;ol&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Capacidade de Carga:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Frequência:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;/ul&gt;</t>
         </is>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
+      <c r="A76" t="n">
+        <v>76</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3214,43 +3213,12 @@
         </is>
       </c>
       <c r="D76" t="inlineStr">
-        <is>
-          <t>Classificação dos Modais:</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>&lt;ul&gt; &lt;li&gt;&lt;b&gt;Velocidade de Transporte:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Disponibilidade:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Confiabilidade: &lt;/b&gt;&lt;ol&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Capacidade de Carga:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;li&gt;&lt;b&gt;Frequência:&lt;/b&gt; &lt;ol&gt; &lt;li&gt;Dutoviário&lt;/li&gt; &lt;li&gt;Rodoviário&lt;/li&gt; &lt;li&gt;Aeroviário&lt;/li&gt; &lt;li&gt;Ferroviário&lt;/li&gt; &lt;li&gt;Aquaviário&lt;/li&gt; &lt;/ol&gt;&lt;/li&gt; &lt;/ul&gt;</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Conhecimentos Específicos</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Logística</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
         <is>
           <t>&lt;b&gt;Distribuição&lt;/b&gt;
 &lt;i&gt;Características&lt;/i&gt;</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t xml:space="preserve">&lt;ul&gt;
 	&lt;li&gt;&lt;b&gt;Caonceito:&lt;/b&gt; &lt;ul&gt; &lt;li&gt;conjunto de ações voltadas à gestão de materiais, iniciando com a saída do produto do processo produtivo e terminando com a entrega no ponto final de consumo&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
@@ -3259,34 +3227,34 @@
 </t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Conhecimentos Específicos</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>Logística</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>&lt;b&gt;Armazenamento&lt;/b&gt;
 &lt;i&gt;Características&lt;/i&gt;</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 	&lt;li&gt;atividades que compreende a armazenagem: &lt;ul&gt; &lt;li&gt;receber&lt;/li&gt; &lt;li&gt;carregar&lt;/li&gt; &lt;li&gt;descarregar&lt;/li&gt; &lt;li&gt;conservar&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
@@ -3299,33 +3267,33 @@
 &lt;/ul&gt;</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
         <v>78</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Conhecimentos Específicos</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>Logística</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Sistemas Logísticos</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 	&lt;li&gt;TMS&lt;/li&gt;
@@ -3336,34 +3304,34 @@
 &lt;/ul&gt;</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
         <v>79</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Conhecimentos Específicos</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>Logística</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>&lt;b&gt;Logística Reversa&lt;/b&gt;
 &lt;i&gt;Características&lt;/i&gt;</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 	&lt;li&gt;responsabilidade sobre os resíduos produzidos em decorrência do consumo de bens&lt;/li&gt;
@@ -3376,16 +3344,48 @@
 &lt;/ul&gt;</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Logística Verde&lt;/b&gt;
+&lt;i&gt;Conceito&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>procedimentos de logística que objetivam a preservação do meio ambiente, que incluem desde a embalagem até o modal de transporte utilizado</t>
+        </is>
+      </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3398,44 +3398,12 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
-        <is>
-          <t>&lt;b&gt;Logística Verde&lt;/b&gt;
-&lt;i&gt;Conceito&lt;/i&gt;</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>procedimentos de logística que objetivam a preservação do meio ambiente, que incluem desde a embalagem até o modal de transporte utilizado</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Conhecimentos Específicos</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Logística</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
         <is>
           <t>&lt;b&gt;Logística de Pós-consumo&lt;/b&gt;
 &lt;i&gt;Características&lt;/i&gt;</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>&lt;ul&gt;
 	&lt;li&gt;favorece o retorno dos produtos após serem utilizados pelos clientes, visando: &lt;ul&gt; &lt;li&gt;reciclagem&lt;/li&gt; &lt;li&gt;reutilização ou&lt;/li&gt; &lt;li&gt;descarte apropriado&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
@@ -3444,43 +3412,289 @@
 &lt;/ul&gt;</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
         <v>82</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Conhecimentos Específicos</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>Logística</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>&lt;b&gt;Logística de Pós-venda&lt;/b&gt;
 &lt;i&gt;Características&lt;/i&gt;</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;uma das suas preocupações-chave: &lt;/b&gt;&lt;ul&gt; &lt;li&gt;criar um canal acessível para clientes retornarem &lt;b&gt;produtos&lt;/b&gt;. &lt;ul&gt; &lt;li&gt;defeitos de fabricação ou&lt;/li&gt; &lt;li&gt;erros no pedido&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Matemática Básica</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Logarítimos</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Propriedades dos logaritmos</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>&lt;b&gt;uma das suas preocupações-chave: &lt;/b&gt;&lt;ul&gt; &lt;li&gt;criar um canal acessível para clientes retornarem &lt;b&gt;produtos&lt;/b&gt;. &lt;ul&gt; &lt;li&gt;defeitos de fabricação ou&lt;/li&gt; &lt;li&gt;erros no pedido&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt; &lt;/ul&gt;</t>
+          <t>&lt;ul&gt;
+	&lt;li&gt;log&lt;sub&gt;a&lt;/sub&gt;(b &amp;sdot; c) =log&lt;sub&gt;a&lt;/sub&gt;b + log&lt;sub&gt;a&lt;/sub&gt;c&lt;/li&gt;
+	&lt;li&gt;log&lt;sub&gt;a&lt;/sub&gt;(b/c) = log&lt;sub&gt;a&lt;/sub&gt;b - log&lt;sub&gt;a&lt;/sub&gt;c&lt;/li&gt;
+	&lt;li&gt;log&lt;sub&gt;a&lt;/sub&gt;b&lt;sup&gt;c&lt;/sup&gt; = clog&lt;sub&gt;a&lt;/sub&gt;b&lt;/li&gt;
+	&lt;li&gt;log&lt;sub&gt;a&lt;sup&gt;x&lt;/sup&gt;&lt;/sub&gt;b = (1/x)log&lt;sub&gt;a&lt;/sub&gt;b&lt;/li&gt;
+	&lt;li&gt;log&lt;sub&gt;b&lt;/sub&gt;a = (log&lt;sub&gt;c&lt;/sub&gt;a)/(log&lt;sub&gt;c&lt;/sub&gt;b)&lt;/li&gt;
+&lt;/ul&gt;</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Modais de Transporte&lt;/b&gt;: Aeroviário</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;vantagens:&lt;ul&gt; &lt;li&gt;longas distâncias, independente de acidentes ou formações geográficas&lt;/li&gt; &lt;li&gt;mais rápido dentre os modais&lt;/li&gt; &lt;li&gt;Menor custo com embalagens&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;desvantagens:&lt;ul&gt; &lt;li&gt;volume pequeno de cargas&lt;/li&gt; &lt;li&gt;custo mais elevado&lt;/li&gt; &lt;li&gt;grande chance de precisar de outro modal para que o produto chegue ao destino&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Modais de transporte&lt;/b&gt;: Aquaviário</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;Marítimo: mares e oceanos;&lt;/li&gt;
+	&lt;li&gt;Fluvial: rios;&lt;/li&gt;
+	&lt;li&gt;Lacustre: lagos e lagoas.&lt;/li&gt;
+	&lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;Maior capacidade de carga&lt;/li&gt; &lt;li&gt;grandes distâncias de forma autônoma&lt;/li&gt; &lt;li&gt;Baixo custo unitário de carregamento&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;é o mais lento entre os modais&lt;/li&gt; &lt;li&gt;Maior suscetibilidade as mudanças da natureza&lt;/li&gt; &lt;li&gt;Necessidade de terminais especializados&lt;/li&gt; &lt;li&gt;Desembaraço burocrático&lt;/li&gt; &lt;li&gt;Alto custo quanto ao seguro das cargas&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Modasi de Transporte&lt;/b&gt;: Ferroviário</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;Baixo custo&lt;/li&gt; &lt;li&gt;Menor risco de acidentes&lt;/li&gt; &lt;li&gt;grande capacidade de transporte de cargas&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;grande chance de precisar de outro modal para que o produto chegue ao destino;&lt;/li&gt; &lt;li&gt;Baixo investimento governamental&lt;/li&gt; &lt;li&gt;Rotas fixas e inflexíveis&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Modais de Transporte&lt;/b&gt;: Rodoviário</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;realizado por meio de caminhões, carretas, carros e veículos em geral através de rodovias.&lt;/li&gt;
+	&lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;alcance (acessibilidade)&lt;/li&gt; &lt;li&gt;Rapidez para contratação&lt;/li&gt; &lt;li&gt;Rotas flexíveis&lt;/li&gt; &lt;li&gt;Menor burocracia em relação aos outros modais&lt;/li&gt; &lt;li&gt;custo de estrutura é menor e há investimento governamental&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;Gastos com pedágio e maior suscetibilidade ao aumento de combustíveis tendem a aumentar o valor do frete&lt;/li&gt; &lt;li&gt;capacidade de carga é bem menor&lt;/li&gt; &lt;li&gt;autonomia de deslocamento é menor&lt;/li&gt; &lt;li&gt;Maior chance de extravio quanto a carga&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Modais de Transporte&lt;/b&gt;: Dutoviário</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>&lt;ul&gt;
+	&lt;li&gt;largamente utilizado na indústria de Petróleo e seus derivados&lt;/li&gt;
+	&lt;li&gt;vantagens: &lt;ul&gt; &lt;li&gt;Consegue transportar grande volume de carga de forma constante&lt;/li&gt; &lt;li&gt;grande confiabilidade no processo de captação e entrega&lt;/li&gt; &lt;li&gt;Baixos custos operacionais&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+	&lt;li&gt;desvantagens: &lt;ul&gt; &lt;li&gt;Custo inicial para implantação do projeto (fixo) altíssimo&lt;/li&gt; &lt;li&gt;Burocracia ambiental&lt;/li&gt; &lt;li&gt;Reduzida flexibilidade de trajeto&lt;/li&gt; &lt;/ul&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Logística</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;Cabotagem&lt;/b&gt;
+&lt;i&gt;Conceito&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>transporte marítimo ou hidroviário de cargas e passageiros entre portos ou pontos dentro do mesmo país, mantendo a costa à vista, diferente da navegação de longo curso (internacional)</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/banco_de_dados/flashcards.xlsx
+++ b/banco_de_dados/flashcards.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3697,6 +3697,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Conhecimentos Específicos</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Gestão de Estoques</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>&lt;b&gt;VMI&lt;/b&gt;:
+&lt;i&gt;Conceito&lt;/i&gt;</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>modelo de reposição de estoques no qual o fornecedor assume a responsabilidade de monitorar e reabastecer o estoque do cliente com base na demanda real e nos níveis de estoque disponíveis.</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
